--- a/docs/BOM.xlsx
+++ b/docs/BOM.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\repos\TD1-MiniLab\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C4E675-D57A-4BEF-B59A-A63C152F7C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D28C331-B10E-4CFB-B334-D5F9987277F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E1972513-9427-4164-8C6E-A4A02580A20D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E1972513-9427-4164-8C6E-A4A02580A20D}"/>
   </bookViews>
   <sheets>
     <sheet name="minilab" sheetId="3" r:id="rId1"/>
+    <sheet name="reportes" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">minilab!$A$1:$D$32</definedName>
+    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">minilab!$A$1:$D$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="68">
   <si>
     <t>Item</t>
   </si>
@@ -84,9 +85,6 @@
     <t>1M</t>
   </si>
   <si>
-    <t>SW_DPDT_x2</t>
-  </si>
-  <si>
     <t>SW_SPDT</t>
   </si>
   <si>
@@ -96,9 +94,6 @@
     <t>L7805</t>
   </si>
   <si>
-    <t>L7833</t>
-  </si>
-  <si>
     <t>Componente</t>
   </si>
   <si>
@@ -132,12 +127,6 @@
     <t>Switch Palanca ON/ON</t>
   </si>
   <si>
-    <t>Switch Palanca ON/OFF</t>
-  </si>
-  <si>
-    <t>SW_SPST</t>
-  </si>
-  <si>
     <t>Conector Bornera 3 Pos. 5.08mm</t>
   </si>
   <si>
@@ -186,18 +175,9 @@
     <t>Cant. Total</t>
   </si>
   <si>
-    <t>Origen</t>
-  </si>
-  <si>
     <t>ORIGENES</t>
   </si>
   <si>
-    <t>ML</t>
-  </si>
-  <si>
-    <t>CENTRO</t>
-  </si>
-  <si>
     <t>QUIQUE</t>
   </si>
   <si>
@@ -220,16 +200,71 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>PAGÓ</t>
+  </si>
+  <si>
+    <t>ANDRES</t>
+  </si>
+  <si>
+    <t>JUAN S</t>
+  </si>
+  <si>
+    <t>SW_DPDT</t>
+  </si>
+  <si>
+    <t>KF33</t>
+  </si>
+  <si>
+    <t>ORIGEN</t>
+  </si>
+  <si>
+    <t>ELECTRO</t>
+  </si>
+  <si>
+    <t>ALFA</t>
+  </si>
+  <si>
+    <t>GAL. NORTE</t>
+  </si>
+  <si>
+    <t>TODOMICRO</t>
+  </si>
+  <si>
+    <t>IMANES ARG</t>
+  </si>
+  <si>
+    <t>JUAN M</t>
+  </si>
+  <si>
+    <t>Puso Totál</t>
+  </si>
+  <si>
+    <t>Giros in-situ</t>
+  </si>
+  <si>
+    <t>Balance Total 27/3</t>
+  </si>
+  <si>
+    <t>Resta del valor del MINILAB</t>
+  </si>
+  <si>
+    <t>Balance total considerando costo</t>
+  </si>
+  <si>
+    <t>Gastado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$$-2C0A]\ #,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$$-2C0A]\ #,##0.00;[Red]\-[$$-2C0A]\ #,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +278,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -252,7 +295,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -260,31 +303,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="[$$-2C0A]\ #,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$$-2C0A]\ #,##0.00"/>
@@ -304,6 +381,16 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -319,13 +406,14 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_1" connectionId="2" xr16:uid="{E1BE063E-44ED-496D-A54B-6B20D0063D9B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="17" unboundColumnsRight="7">
-    <queryTableFields count="11">
+  <queryTableRefresh nextId="18" unboundColumnsRight="8">
+    <queryTableFields count="12">
       <queryTableField id="1" name="Item" tableColumnId="1"/>
       <queryTableField id="2" name="Qty" tableColumnId="2"/>
       <queryTableField id="8" dataBound="0" tableColumnId="8"/>
       <queryTableField id="4" name="Value" tableColumnId="4"/>
       <queryTableField id="9" dataBound="0" tableColumnId="9"/>
+      <queryTableField id="17" dataBound="0" tableColumnId="3"/>
       <queryTableField id="10" dataBound="0" tableColumnId="10"/>
       <queryTableField id="11" dataBound="0" tableColumnId="11"/>
       <queryTableField id="12" dataBound="0" tableColumnId="12"/>
@@ -344,20 +432,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7AF70FC2-1E1D-4746-9729-C9976CBACED3}" name="minilab3" displayName="minilab3" ref="A1:K33" tableType="queryTable" totalsRowCount="1">
-  <autoFilter ref="A1:K32" xr:uid="{7AF70FC2-1E1D-4746-9729-C9976CBACED3}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D32">
-    <sortCondition ref="C1:C32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7AF70FC2-1E1D-4746-9729-C9976CBACED3}" name="minilab3" displayName="minilab3" ref="A1:L32" tableType="queryTable" totalsRowCount="1">
+  <autoFilter ref="A1:L31" xr:uid="{7AF70FC2-1E1D-4746-9729-C9976CBACED3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D31">
+    <sortCondition ref="C1:C31"/>
   </sortState>
-  <tableColumns count="11">
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{03D1CBE3-560E-48FC-BD58-187AFDE6ADBD}" uniqueName="1" name="Item" totalsRowLabel="Total" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{8C13503C-A3D9-4351-984C-FA4F2EDEA133}" uniqueName="2" name="Cantidad" queryTableFieldId="2"/>
     <tableColumn id="8" xr3:uid="{7D8BB3F4-6AB4-4AE2-9FA4-B7A72BF308F8}" uniqueName="8" name="Componente" queryTableFieldId="8"/>
     <tableColumn id="4" xr3:uid="{FA7F7653-9F6B-4BB8-86E6-B99592DD8368}" uniqueName="4" name="Valor" queryTableFieldId="4" dataDxfId="6"/>
     <tableColumn id="9" xr3:uid="{BD26F3FD-0D39-4F62-BB44-70938777CF87}" uniqueName="9" name="Cant. Total" queryTableFieldId="9" dataDxfId="5">
-      <calculatedColumnFormula>minilab3[[#This Row],[Cantidad]]*$O$8</calculatedColumnFormula>
+      <calculatedColumnFormula>minilab3[[#This Row],[Cantidad]]*$P$8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{B239259F-28AC-440D-A659-8FA5E60ABCE5}" uniqueName="10" name="Origen" queryTableFieldId="10"/>
+    <tableColumn id="3" xr3:uid="{F49E1D94-F483-4CBB-966F-F2AB20950AD3}" uniqueName="3" name="ORIGEN" queryTableFieldId="17"/>
+    <tableColumn id="10" xr3:uid="{B239259F-28AC-440D-A659-8FA5E60ABCE5}" uniqueName="10" name="PAGÓ" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{D574F05A-37FD-4C34-93AC-008AB506B727}" uniqueName="11" name="Conseguidos" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{81D205D7-02D5-42BC-973D-42416AEFD777}" uniqueName="12" name="Excedentes" queryTableFieldId="12" dataDxfId="4">
       <calculatedColumnFormula>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</calculatedColumnFormula>
@@ -366,8 +455,8 @@
     <tableColumn id="13" xr3:uid="{C4A6E47D-3B94-4046-9B02-8F44BAAF59C8}" uniqueName="13" name="Costo total" queryTableFieldId="13" dataDxfId="2">
       <calculatedColumnFormula>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{03CC62E7-235A-4832-9350-5A8E20A05B53}" uniqueName="15" name="Costo x Minilab" totalsRowFunction="sum" queryTableFieldId="16" dataDxfId="1">
-      <calculatedColumnFormula>minilab3[[#This Row],[Costo total]]/$O$8</calculatedColumnFormula>
+    <tableColumn id="15" xr3:uid="{03CC62E7-235A-4832-9350-5A8E20A05B53}" uniqueName="15" name="Costo x Minilab" totalsRowFunction="sum" queryTableFieldId="16" dataDxfId="1" totalsRowDxfId="0">
+      <calculatedColumnFormula>minilab3[[#This Row],[Costo total]]/$P$8</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -671,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB336796-E537-4B75-A19E-F3A12058191C}">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,52 +772,57 @@
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -736,36 +830,42 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <f>minilab3[[#This Row],[Cantidad]]*$O$8</f>
+        <f>minilab3[[#This Row],[Cantidad]]*$P$8</f>
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
       </c>
       <c r="H2">
-        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
+        <v>2</v>
+      </c>
       <c r="J2" s="3">
-        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
-        <v>0</v>
+        <f>189.189*1.105</f>
+        <v>209.053845</v>
       </c>
       <c r="K2" s="3">
-        <f>minilab3[[#This Row],[Costo total]]/$O$8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
+        <v>1254.3230699999999</v>
+      </c>
+      <c r="L2" s="3">
+        <f>minilab3[[#This Row],[Costo total]]/$P$8</f>
+        <v>313.58076749999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -773,36 +873,42 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3">
-        <f>minilab3[[#This Row],[Cantidad]]*$O$8</f>
+        <f>minilab3[[#This Row],[Cantidad]]*$P$8</f>
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
       </c>
       <c r="H3">
-        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
+        <v>0</v>
+      </c>
       <c r="J3" s="3">
-        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
-        <v>0</v>
+        <f>36.96*1.105</f>
+        <v>40.840800000000002</v>
       </c>
       <c r="K3" s="3">
-        <f>minilab3[[#This Row],[Costo total]]/$O$8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
+        <v>163.36320000000001</v>
+      </c>
+      <c r="L3" s="3">
+        <f>minilab3[[#This Row],[Costo total]]/$P$8</f>
+        <v>40.840800000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -810,36 +916,42 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E4">
-        <f>minilab3[[#This Row],[Cantidad]]*$O$8</f>
+        <f>minilab3[[#This Row],[Cantidad]]*$P$8</f>
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
       </c>
       <c r="H4">
-        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
+        <v>0</v>
+      </c>
       <c r="J4" s="3">
-        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
-        <v>0</v>
+        <f>36.96*1.105</f>
+        <v>40.840800000000002</v>
       </c>
       <c r="K4" s="3">
-        <f>minilab3[[#This Row],[Costo total]]/$O$8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
+        <v>163.36320000000001</v>
+      </c>
+      <c r="L4" s="3">
+        <f>minilab3[[#This Row],[Costo total]]/$P$8</f>
+        <v>40.840800000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -847,36 +959,41 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <f>minilab3[[#This Row],[Cantidad]]*$O$8</f>
+        <f>minilab3[[#This Row],[Cantidad]]*$P$8</f>
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
       </c>
       <c r="H5">
-        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
+        <v>4</v>
+      </c>
       <c r="J5" s="3">
-        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
-        <v>0</v>
+        <v>109.2</v>
       </c>
       <c r="K5" s="3">
-        <f>minilab3[[#This Row],[Costo total]]/$O$8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
+        <v>1310.4000000000001</v>
+      </c>
+      <c r="L5" s="3">
+        <f>minilab3[[#This Row],[Costo total]]/$P$8</f>
+        <v>327.60000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -884,36 +1001,41 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E6">
-        <f>minilab3[[#This Row],[Cantidad]]*$O$8</f>
+        <f>minilab3[[#This Row],[Cantidad]]*$P$8</f>
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
       </c>
       <c r="H6">
-        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
+        <v>0</v>
+      </c>
       <c r="J6" s="3">
-        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
-        <v>0</v>
+        <v>18.2</v>
       </c>
       <c r="K6" s="3">
-        <f>minilab3[[#This Row],[Costo total]]/$O$8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
+        <v>72.8</v>
+      </c>
+      <c r="L6" s="3">
+        <f>minilab3[[#This Row],[Costo total]]/$P$8</f>
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -921,39 +1043,47 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E7">
-        <f>minilab3[[#This Row],[Cantidad]]*$O$8</f>
+        <f>minilab3[[#This Row],[Cantidad]]*$P$8</f>
         <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
       </c>
       <c r="H7">
-        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="I7">
+        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
+        <v>0</v>
+      </c>
       <c r="J7" s="3">
-        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K7" s="3">
-        <f>minilab3[[#This Row],[Costo total]]/$O$8</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
+        <v>224</v>
+      </c>
+      <c r="L7" s="3">
+        <f>minilab3[[#This Row],[Costo total]]/$P$8</f>
+        <v>56</v>
+      </c>
+      <c r="R7" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -961,45 +1091,54 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E8">
-        <f>minilab3[[#This Row],[Cantidad]]*$O$8</f>
+        <f>minilab3[[#This Row],[Cantidad]]*$P$8</f>
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
       </c>
       <c r="H8">
-        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
+        <v>0</v>
+      </c>
       <c r="J8" s="3">
-        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
-        <v>0</v>
+        <f>3.234*1.21</f>
+        <v>3.9131399999999998</v>
       </c>
       <c r="K8" s="3">
-        <f>minilab3[[#This Row],[Costo total]]/$O$8</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O8">
-        <v>4</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
+        <v>31.305119999999999</v>
+      </c>
+      <c r="L8" s="3">
+        <f>minilab3[[#This Row],[Costo total]]/$P$8</f>
+        <v>7.8262799999999997</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1007,39 +1146,48 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E9">
-        <f>minilab3[[#This Row],[Cantidad]]*$O$8</f>
+        <f>minilab3[[#This Row],[Cantidad]]*$P$8</f>
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
       </c>
       <c r="H9">
-        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
+        <v>0</v>
+      </c>
       <c r="J9" s="3">
-        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
-        <v>0</v>
+        <f>3.234*1.21</f>
+        <v>3.9131399999999998</v>
       </c>
       <c r="K9" s="3">
-        <f>minilab3[[#This Row],[Costo total]]/$O$8</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
+        <v>31.305119999999999</v>
+      </c>
+      <c r="L9" s="3">
+        <f>minilab3[[#This Row],[Costo total]]/$P$8</f>
+        <v>7.8262799999999997</v>
+      </c>
+      <c r="R9" t="s">
+        <v>52</v>
+      </c>
+      <c r="S9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1047,39 +1195,45 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10">
-        <f>minilab3[[#This Row],[Cantidad]]*$O$8</f>
+        <f>minilab3[[#This Row],[Cantidad]]*$P$8</f>
         <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10">
         <v>28</v>
       </c>
-      <c r="H10">
-        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="I10">
+        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>85</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
         <v>2380</v>
       </c>
-      <c r="K10" s="3">
-        <f>minilab3[[#This Row],[Costo total]]/$O$8</f>
+      <c r="L10" s="3">
+        <f>minilab3[[#This Row],[Costo total]]/$P$8</f>
         <v>595</v>
       </c>
-      <c r="Q10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10" t="s">
+        <v>42</v>
+      </c>
+      <c r="S10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1087,34 +1241,42 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11">
-        <f>minilab3[[#This Row],[Cantidad]]*$O$8</f>
+        <f>minilab3[[#This Row],[Cantidad]]*$P$8</f>
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="G11" t="s">
+        <v>42</v>
       </c>
       <c r="H11">
-        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
+        <v>0</v>
+      </c>
       <c r="J11" s="3">
-        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K11" s="3">
-        <f>minilab3[[#This Row],[Costo total]]/$O$8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
+        <v>400</v>
+      </c>
+      <c r="L11" s="3">
+        <f>minilab3[[#This Row],[Costo total]]/$P$8</f>
+        <v>100</v>
+      </c>
+      <c r="S11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1122,73 +1284,87 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E12">
-        <f>minilab3[[#This Row],[Cantidad]]*$O$8</f>
+        <f>minilab3[[#This Row],[Cantidad]]*$P$8</f>
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12">
-        <v>4</v>
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
       </c>
       <c r="H12">
-        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>2.5</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
         <v>10</v>
       </c>
-      <c r="K12" s="3">
-        <f>minilab3[[#This Row],[Costo total]]/$O$8</f>
+      <c r="L12" s="3">
+        <f>minilab3[[#This Row],[Costo total]]/$P$8</f>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13">
-        <f>minilab3[[#This Row],[Cantidad]]*$O$8</f>
-        <v>8</v>
+        <f>minilab3[[#This Row],[Cantidad]]*$P$8</f>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
       </c>
       <c r="H13">
-        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
+        <v>0</v>
+      </c>
       <c r="J13" s="3">
-        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
         <v>0</v>
       </c>
       <c r="K13" s="3">
-        <f>minilab3[[#This Row],[Costo total]]/$O$8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <f>minilab3[[#This Row],[Costo total]]/$P$8</f>
+        <v>0</v>
+      </c>
+      <c r="S13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1196,36 +1372,39 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14">
-        <f>minilab3[[#This Row],[Cantidad]]*$O$8</f>
+        <f>minilab3[[#This Row],[Cantidad]]*$P$8</f>
         <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14">
         <v>28</v>
       </c>
-      <c r="H14">
-        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="I14">
+        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>25</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
         <v>700</v>
       </c>
-      <c r="K14" s="3">
-        <f>minilab3[[#This Row],[Costo total]]/$O$8</f>
+      <c r="L14" s="3">
+        <f>minilab3[[#This Row],[Costo total]]/$P$8</f>
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1233,36 +1412,41 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E15">
-        <f>minilab3[[#This Row],[Cantidad]]*$O$8</f>
+        <f>minilab3[[#This Row],[Cantidad]]*$P$8</f>
         <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="G15" t="s">
+        <v>51</v>
       </c>
       <c r="H15">
-        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="I15">
+        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
+        <v>0</v>
+      </c>
       <c r="J15" s="3">
-        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
-        <v>0</v>
+        <v>23.8</v>
       </c>
       <c r="K15" s="3">
-        <f>minilab3[[#This Row],[Costo total]]/$O$8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
+        <v>571.20000000000005</v>
+      </c>
+      <c r="L15" s="3">
+        <f>minilab3[[#This Row],[Costo total]]/$P$8</f>
+        <v>142.80000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1270,34 +1454,39 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16">
-        <f>minilab3[[#This Row],[Cantidad]]*$O$8</f>
+        <f>minilab3[[#This Row],[Cantidad]]*$P$8</f>
         <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="G16" t="s">
+        <v>52</v>
       </c>
       <c r="H16">
-        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="I16">
+        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
+        <v>0</v>
+      </c>
       <c r="J16" s="3">
-        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="K16" s="3">
-        <f>minilab3[[#This Row],[Costo total]]/$O$8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
+        <v>1152</v>
+      </c>
+      <c r="L16" s="3">
+        <f>minilab3[[#This Row],[Costo total]]/$P$8</f>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1305,36 +1494,39 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17">
-        <f>minilab3[[#This Row],[Cantidad]]*$O$8</f>
+        <f>minilab3[[#This Row],[Cantidad]]*$P$8</f>
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17">
+        <v>42</v>
+      </c>
+      <c r="G17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17">
         <v>32</v>
       </c>
-      <c r="H17">
-        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="I17">
+        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>5</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
         <v>160</v>
       </c>
-      <c r="K17" s="3">
-        <f>minilab3[[#This Row],[Costo total]]/$O$8</f>
+      <c r="L17" s="3">
+        <f>minilab3[[#This Row],[Costo total]]/$P$8</f>
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1342,36 +1534,39 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18">
-        <f>minilab3[[#This Row],[Cantidad]]*$O$8</f>
+        <f>minilab3[[#This Row],[Cantidad]]*$P$8</f>
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18">
+        <v>42</v>
+      </c>
+      <c r="G18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18">
         <v>12</v>
       </c>
-      <c r="H18">
-        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="I18">
+        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>5</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
         <v>60</v>
       </c>
-      <c r="K18" s="3">
-        <f>minilab3[[#This Row],[Costo total]]/$O$8</f>
+      <c r="L18" s="3">
+        <f>minilab3[[#This Row],[Costo total]]/$P$8</f>
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1379,33 +1574,38 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="G19" t="s">
+        <v>51</v>
       </c>
       <c r="H19">
-        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
+        <v>0</v>
+      </c>
       <c r="J19" s="3">
-        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="K19" s="3">
-        <f>minilab3[[#This Row],[Costo total]]/$O$8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
+        <v>266</v>
+      </c>
+      <c r="L19" s="3">
+        <f>minilab3[[#This Row],[Costo total]]/$P$8</f>
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1413,34 +1613,39 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20">
-        <f>minilab3[[#This Row],[Cantidad]]*$O$8</f>
+        <f>minilab3[[#This Row],[Cantidad]]*$P$8</f>
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="G20" t="s">
+        <v>51</v>
       </c>
       <c r="H20">
-        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="I20">
+        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
+        <v>0</v>
+      </c>
       <c r="J20" s="3">
-        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
-        <v>0</v>
+        <v>82.6</v>
       </c>
       <c r="K20" s="3">
-        <f>minilab3[[#This Row],[Costo total]]/$O$8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
+        <v>660.8</v>
+      </c>
+      <c r="L20" s="3">
+        <f>minilab3[[#This Row],[Costo total]]/$P$8</f>
+        <v>165.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1448,36 +1653,41 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E21">
-        <f>minilab3[[#This Row],[Cantidad]]*$O$8</f>
+        <f>minilab3[[#This Row],[Cantidad]]*$P$8</f>
         <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="G21" t="s">
+        <v>51</v>
       </c>
       <c r="H21">
-        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
+        <v>0</v>
+      </c>
       <c r="J21" s="3">
-        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
-        <v>0</v>
+        <v>138.6</v>
       </c>
       <c r="K21" s="3">
-        <f>minilab3[[#This Row],[Costo total]]/$O$8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
+        <v>554.4</v>
+      </c>
+      <c r="L21" s="3">
+        <f>minilab3[[#This Row],[Costo total]]/$P$8</f>
+        <v>138.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1485,34 +1695,39 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22">
-        <f>minilab3[[#This Row],[Cantidad]]*$O$8</f>
+        <f>minilab3[[#This Row],[Cantidad]]*$P$8</f>
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="G22" t="s">
+        <v>51</v>
       </c>
       <c r="H22">
-        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
+        <v>0</v>
+      </c>
       <c r="J22" s="3">
-        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="K22" s="3">
-        <f>minilab3[[#This Row],[Costo total]]/$O$8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
+        <v>3200</v>
+      </c>
+      <c r="L22" s="3">
+        <f>minilab3[[#This Row],[Costo total]]/$P$8</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1520,34 +1735,39 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23">
-        <f>minilab3[[#This Row],[Cantidad]]*$O$8</f>
+        <f>minilab3[[#This Row],[Cantidad]]*$P$8</f>
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="G23" t="s">
+        <v>42</v>
       </c>
       <c r="H23">
-        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="I23">
+        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
+        <v>0</v>
+      </c>
       <c r="J23" s="3">
-        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="K23" s="3">
-        <f>minilab3[[#This Row],[Costo total]]/$O$8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
+        <v>1712</v>
+      </c>
+      <c r="L23" s="3">
+        <f>minilab3[[#This Row],[Costo total]]/$P$8</f>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1555,36 +1775,42 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E24">
-        <f>minilab3[[#This Row],[Cantidad]]*$O$8</f>
+        <f>minilab3[[#This Row],[Cantidad]]*$P$8</f>
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="G24" t="s">
+        <v>42</v>
       </c>
       <c r="H24">
-        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="I24">
+        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
+        <v>46</v>
+      </c>
       <c r="J24" s="3">
-        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
-        <v>0</v>
+        <f>1.21*63.525/50</f>
+        <v>1.5373049999999997</v>
       </c>
       <c r="K24" s="3">
-        <f>minilab3[[#This Row],[Costo total]]/$O$8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
+        <v>76.865249999999989</v>
+      </c>
+      <c r="L24" s="3">
+        <f>minilab3[[#This Row],[Costo total]]/$P$8</f>
+        <v>19.216312499999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1592,36 +1818,42 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E25">
-        <f>minilab3[[#This Row],[Cantidad]]*$O$8</f>
+        <f>minilab3[[#This Row],[Cantidad]]*$P$8</f>
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="G25" t="s">
+        <v>42</v>
       </c>
       <c r="H25">
-        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="I25">
+        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
+        <v>6</v>
+      </c>
       <c r="J25" s="3">
-        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
-        <v>0</v>
+        <f>1.21*63.525/50</f>
+        <v>1.5373049999999997</v>
       </c>
       <c r="K25" s="3">
-        <f>minilab3[[#This Row],[Costo total]]/$O$8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
+        <v>76.865249999999989</v>
+      </c>
+      <c r="L25" s="3">
+        <f>minilab3[[#This Row],[Costo total]]/$P$8</f>
+        <v>19.216312499999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1629,73 +1861,85 @@
         <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E26">
-        <f>minilab3[[#This Row],[Cantidad]]*$O$8</f>
+        <f>minilab3[[#This Row],[Cantidad]]*$P$8</f>
         <v>64</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="G26" t="s">
+        <v>42</v>
       </c>
       <c r="H26">
-        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="I26">
+        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
+        <v>36</v>
+      </c>
       <c r="J26" s="3">
-        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
-        <v>0</v>
+        <f>1.21*63.525/50</f>
+        <v>1.5373049999999997</v>
       </c>
       <c r="K26" s="3">
-        <f>minilab3[[#This Row],[Costo total]]/$O$8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
+        <v>153.73049999999998</v>
+      </c>
+      <c r="L26" s="3">
+        <f>minilab3[[#This Row],[Costo total]]/$P$8</f>
+        <v>38.432624999999994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E27">
-        <f>minilab3[[#This Row],[Cantidad]]*$O$8</f>
-        <v>32</v>
+        <f>minilab3[[#This Row],[Cantidad]]*$P$8</f>
+        <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="G27" t="s">
+        <v>42</v>
       </c>
       <c r="H27">
-        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="I27">
+        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
+        <v>0</v>
+      </c>
       <c r="J27" s="3">
-        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
-        <v>0</v>
+        <f>50.82*1.21</f>
+        <v>61.492199999999997</v>
       </c>
       <c r="K27" s="3">
-        <f>minilab3[[#This Row],[Costo total]]/$O$8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
+        <v>2213.7192</v>
+      </c>
+      <c r="L27" s="3">
+        <f>minilab3[[#This Row],[Costo total]]/$P$8</f>
+        <v>553.4298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1703,36 +1947,42 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="E28">
-        <f>minilab3[[#This Row],[Cantidad]]*$O$8</f>
+        <f>minilab3[[#This Row],[Cantidad]]*$P$8</f>
         <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="G28" t="s">
+        <v>42</v>
       </c>
       <c r="H28">
-        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
+        <v>0</v>
+      </c>
       <c r="J28" s="3">
-        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
-        <v>0</v>
+        <f>179.025*1.105</f>
+        <v>197.82262500000002</v>
       </c>
       <c r="K28" s="3">
-        <f>minilab3[[#This Row],[Costo total]]/$O$8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
+        <v>791.29050000000007</v>
+      </c>
+      <c r="L28" s="3">
+        <f>minilab3[[#This Row],[Costo total]]/$P$8</f>
+        <v>197.82262500000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1740,163 +1990,141 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D29" s="1"/>
       <c r="E29">
-        <f>minilab3[[#This Row],[Cantidad]]*$O$8</f>
+        <f>minilab3[[#This Row],[Cantidad]]*$P$8</f>
         <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="G29" t="s">
+        <v>42</v>
       </c>
       <c r="H29">
-        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
+        <v>0</v>
+      </c>
       <c r="J29" s="3">
-        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
-        <v>0</v>
+        <f>55.44*1.105</f>
+        <v>61.261199999999995</v>
       </c>
       <c r="K29" s="3">
-        <f>minilab3[[#This Row],[Costo total]]/$O$8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
+        <v>245.04479999999998</v>
+      </c>
+      <c r="L29" s="3">
+        <f>minilab3[[#This Row],[Costo total]]/$P$8</f>
+        <v>61.261199999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30">
-        <f>minilab3[[#This Row],[Cantidad]]*$O$8</f>
-        <v>4</v>
+        <f>minilab3[[#This Row],[Cantidad]]*$P$8</f>
+        <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="G30" t="s">
+        <v>42</v>
       </c>
       <c r="H30">
-        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="I30">
+        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
+        <v>0</v>
+      </c>
       <c r="J30" s="3">
-        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K30" s="3">
-        <f>minilab3[[#This Row],[Costo total]]/$O$8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
+        <v>80</v>
+      </c>
+      <c r="L30" s="3">
+        <f>minilab3[[#This Row],[Costo total]]/$P$8</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31">
-        <f>minilab3[[#This Row],[Cantidad]]*$O$8</f>
-        <v>8</v>
+        <f>minilab3[[#This Row],[Cantidad]]*$P$8</f>
+        <v>4</v>
       </c>
       <c r="F31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="3">
+        <v>10</v>
+      </c>
+      <c r="K31" s="3">
+        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
+        <v>40</v>
+      </c>
+      <c r="L31" s="3">
+        <f>minilab3[[#This Row],[Costo total]]/$P$8</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>49</v>
       </c>
-      <c r="G31">
-        <v>8</v>
-      </c>
-      <c r="H31">
-        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="3">
-        <v>10</v>
-      </c>
-      <c r="J31" s="3">
-        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
-        <v>80</v>
-      </c>
-      <c r="K31" s="3">
-        <f>minilab3[[#This Row],[Costo total]]/$O$8</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32">
-        <f>minilab3[[#This Row],[Cantidad]]*$O$8</f>
-        <v>4</v>
-      </c>
-      <c r="F32" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32">
-        <v>4</v>
-      </c>
-      <c r="H32">
-        <f>IF(minilab3[[#This Row],[Conseguidos]]&gt;=minilab3[[#This Row],[Cant. Total]],minilab3[[#This Row],[Conseguidos]]-minilab3[[#This Row],[Cant. Total]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>10</v>
-      </c>
-      <c r="J32" s="3">
-        <f>minilab3[[#This Row],[Costo c/u]]*minilab3[[#This Row],[Conseguidos]]</f>
-        <v>40</v>
-      </c>
-      <c r="K32" s="3">
-        <f>minilab3[[#This Row],[Costo total]]/$O$8</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>56</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L32" s="3">
         <f>SUBTOTAL(109,minilab3[Costo x Minilab])</f>
-        <v>857.5</v>
+        <v>4688.6938024999999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:G32">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="H2:H18 H20:H31">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
       <formula>$E$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F32" xr:uid="{FECE1C5F-7CAA-4F9D-974D-F9153328F677}">
-      <formula1>$Q$8:$Q$10</formula1>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G31" xr:uid="{FECE1C5F-7CAA-4F9D-974D-F9153328F677}">
+      <formula1>$R$8:$R$10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F31" xr:uid="{158E747C-3AA9-40E7-A64E-89693A4400C0}">
+      <formula1>$S$8:$S$13</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1904,6 +2132,261 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40FE4155-20AD-4515-8176-9B8749CDC874}">
+  <dimension ref="A2:N17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="4">
+        <f>-SUMIF(minilab3[PAGÓ],minilab!R8,minilab3[Costo total])</f>
+        <v>-6859.6</v>
+      </c>
+      <c r="C3" s="4">
+        <f>-SUMIF(minilab3[PAGÓ],minilab!R10,minilab3[Costo total])</f>
+        <v>-10743.175209999998</v>
+      </c>
+      <c r="D3" s="4">
+        <f>-SUMIF(minilab3[PAGÓ],minilab!R9,minilab3[Costo total])</f>
+        <v>-1152</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="4">
+        <f>SUMIF(minilab3[ORIGEN],minilab!S8,minilab3[Costo total])</f>
+        <v>5037.8120099999996</v>
+      </c>
+      <c r="J3" s="4">
+        <f>SUMIF(minilab3[ORIGEN],minilab!S9,minilab3[Costo total])</f>
+        <v>4059.6</v>
+      </c>
+      <c r="K3" s="4">
+        <f>SUMIF(minilab3[ORIGEN],minilab!S10,minilab3[Costo total])</f>
+        <v>3200</v>
+      </c>
+      <c r="L3" s="4">
+        <f>SUMIF(minilab3[ORIGEN],minilab!S11,minilab3[Costo total])</f>
+        <v>1712</v>
+      </c>
+      <c r="M3" s="4">
+        <f>SUMIF(minilab3[ORIGEN],minilab!S12,minilab3[Costo total])</f>
+        <v>1152</v>
+      </c>
+      <c r="N3" s="4">
+        <f>SUMIF(minilab3[ORIGEN],minilab!S13,minilab3[Costo total])</f>
+        <v>3593.3631999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="4">
+        <v>-2000</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="6">
+        <f>SUM(B3:B4)</f>
+        <v>-4859.6000000000004</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" ref="C5:E5" si="0">SUM(C3:C4)</f>
+        <v>-12743.175209999998</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>-1152</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="4">
+        <f>minilab3[[#Totals],[Costo x Minilab]]</f>
+        <v>4688.6938024999999</v>
+      </c>
+      <c r="C7" s="4">
+        <f>minilab3[[#Totals],[Costo x Minilab]]</f>
+        <v>4688.6938024999999</v>
+      </c>
+      <c r="D7" s="4">
+        <f>minilab3[[#Totals],[Costo x Minilab]]</f>
+        <v>4688.6938024999999</v>
+      </c>
+      <c r="E7" s="4">
+        <f>minilab3[[#Totals],[Costo x Minilab]]</f>
+        <v>4688.6938024999999</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="6">
+        <f>SUM(B5:B7)</f>
+        <v>-170.90619750000042</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" ref="C9:E9" si="1">SUM(C5:C7)</f>
+        <v>-8054.4814074999977</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="1"/>
+        <v>3536.6938024999999</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="1"/>
+        <v>4688.6938024999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
